--- a/Project1/Project1/Stage1.xlsx
+++ b/Project1/Project1/Stage1.xlsx
@@ -47,7 +47,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -70,31 +70,17 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -124,27 +110,6 @@
         <patternFill patternType="solid">
           <fgColor theme="9" tint="0.39991454817346722"/>
           <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF66FF"/>
         </patternFill>
       </fill>
     </dxf>
@@ -207,6 +172,27 @@
       <fill>
         <patternFill>
           <bgColor theme="2" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF66FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
         </patternFill>
       </fill>
     </dxf>
@@ -489,7 +475,7 @@
   <dimension ref="A1:CV20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="AV11" sqref="AV11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -565,7 +551,7 @@
         <v>0</v>
       </c>
       <c r="W1" s="1">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="X1" s="1">
         <v>0</v>
@@ -583,10 +569,10 @@
         <v>0</v>
       </c>
       <c r="AC1" s="1">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="AD1" s="1">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AE1" s="1">
         <v>0</v>
@@ -613,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="AM1" s="1">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="AN1" s="1">
         <v>0</v>
@@ -628,7 +614,7 @@
         <v>0</v>
       </c>
       <c r="AR1" s="1">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AS1" s="1">
         <v>0</v>
@@ -646,7 +632,7 @@
         <v>0</v>
       </c>
       <c r="AX1" s="1">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AY1" s="1">
         <v>0</v>
@@ -664,7 +650,7 @@
         <v>0</v>
       </c>
       <c r="BD1" s="1">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="BE1" s="1">
         <v>0</v>
@@ -790,10 +776,10 @@
         <v>0</v>
       </c>
       <c r="CT1" s="1">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="CU1" s="1">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="CV1" s="1">
         <v>99</v>
@@ -885,7 +871,7 @@
         <v>0</v>
       </c>
       <c r="AC2" s="1">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="AD2" s="1">
         <v>0</v>
@@ -915,7 +901,7 @@
         <v>0</v>
       </c>
       <c r="AM2" s="1">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="AN2" s="1">
         <v>0</v>
@@ -1092,10 +1078,10 @@
         <v>0</v>
       </c>
       <c r="CT2" s="1">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="CU2" s="1">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="CV2" s="1">
         <v>99</v>
@@ -1106,46 +1092,46 @@
         <v>99</v>
       </c>
       <c r="B3" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C3" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D3" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E3" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F3" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G3" s="1">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H3" s="1">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="I3" s="1">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="J3" s="1">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="K3" s="1">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="L3" s="1">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="M3" s="1">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="N3" s="1">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="O3" s="1">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="P3" s="1">
         <v>0</v>
@@ -1187,7 +1173,7 @@
         <v>0</v>
       </c>
       <c r="AC3" s="1">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="AD3" s="1">
         <v>0</v>
@@ -1217,7 +1203,7 @@
         <v>0</v>
       </c>
       <c r="AM3" s="1">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="AN3" s="1">
         <v>0</v>
@@ -1394,10 +1380,10 @@
         <v>0</v>
       </c>
       <c r="CT3" s="1">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="CU3" s="1">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="CV3" s="1">
         <v>99</v>
@@ -1408,7 +1394,7 @@
         <v>99</v>
       </c>
       <c r="B4" s="1">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="C4" s="1">
         <v>0</v>
@@ -1489,7 +1475,7 @@
         <v>0</v>
       </c>
       <c r="AC4" s="1">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="AD4" s="1">
         <v>0</v>
@@ -1519,7 +1505,7 @@
         <v>0</v>
       </c>
       <c r="AM4" s="1">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="AN4" s="1">
         <v>0</v>
@@ -1579,7 +1565,7 @@
         <v>0</v>
       </c>
       <c r="BG4" s="1">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="BH4" s="1">
         <v>0</v>
@@ -1696,10 +1682,10 @@
         <v>0</v>
       </c>
       <c r="CT4" s="1">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="CU4" s="1">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="CV4" s="1">
         <v>99</v>
@@ -1710,7 +1696,7 @@
         <v>99</v>
       </c>
       <c r="B5" s="1">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="C5" s="1">
         <v>0</v>
@@ -1821,7 +1807,7 @@
         <v>0</v>
       </c>
       <c r="AM5" s="1">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="AN5" s="1">
         <v>0</v>
@@ -1971,37 +1957,37 @@
         <v>0</v>
       </c>
       <c r="CK5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CL5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CM5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CN5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CO5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CP5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CQ5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CR5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CS5" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="CT5" s="1">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="CU5" s="1">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="CV5" s="1">
         <v>99</v>
@@ -2012,7 +1998,7 @@
         <v>99</v>
       </c>
       <c r="B6" s="1">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="C6" s="1">
         <v>0</v>
@@ -2054,7 +2040,7 @@
         <v>0</v>
       </c>
       <c r="P6" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="Q6" s="1">
         <v>0</v>
@@ -2066,7 +2052,7 @@
         <v>0</v>
       </c>
       <c r="T6" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="U6" s="1">
         <v>0</v>
@@ -2123,7 +2109,7 @@
         <v>0</v>
       </c>
       <c r="AM6" s="1">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="AN6" s="1">
         <v>0</v>
@@ -2162,7 +2148,7 @@
         <v>0</v>
       </c>
       <c r="AZ6" s="1">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="BA6" s="1">
         <v>0</v>
@@ -2300,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="CT6" s="1">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="CU6" s="1">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="CV6" s="1">
         <v>99</v>
@@ -2314,7 +2300,7 @@
         <v>99</v>
       </c>
       <c r="B7" s="1">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="C7" s="1">
         <v>0</v>
@@ -2347,43 +2333,43 @@
         <v>0</v>
       </c>
       <c r="M7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z7" s="1">
         <v>0</v>
@@ -2395,28 +2381,28 @@
         <v>0</v>
       </c>
       <c r="AC7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK7" s="1">
         <v>0</v>
@@ -2425,76 +2411,76 @@
         <v>0</v>
       </c>
       <c r="AM7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK7" s="1">
         <v>0</v>
@@ -2602,10 +2588,10 @@
         <v>0</v>
       </c>
       <c r="CT7" s="1">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="CU7" s="1">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="CV7" s="1">
         <v>99</v>
@@ -2616,7 +2602,7 @@
         <v>99</v>
       </c>
       <c r="B8" s="1">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="C8" s="1">
         <v>0</v>
@@ -2649,43 +2635,43 @@
         <v>0</v>
       </c>
       <c r="M8" s="1">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="N8" s="1">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="O8" s="1">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="P8" s="1">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="Q8" s="1">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="R8" s="1">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="S8" s="1">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="T8" s="1">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="U8" s="1">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="V8" s="1">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="W8" s="1">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="X8" s="1">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="Y8" s="1">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="Z8" s="1">
         <v>0</v>
@@ -2697,13 +2683,13 @@
         <v>0</v>
       </c>
       <c r="AC8" s="1">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="AD8" s="1">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="AE8" s="1">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="AF8" s="1">
         <v>0</v>
@@ -2727,7 +2713,7 @@
         <v>0</v>
       </c>
       <c r="AM8" s="1">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="AN8" s="1">
         <v>0</v>
@@ -2793,13 +2779,13 @@
         <v>0</v>
       </c>
       <c r="BI8" s="1">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="BJ8" s="1">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="BK8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL8" s="1">
         <v>0</v>
@@ -2904,10 +2890,10 @@
         <v>0</v>
       </c>
       <c r="CT8" s="1">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="CU8" s="1">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="CV8" s="1">
         <v>99</v>
@@ -2918,7 +2904,7 @@
         <v>99</v>
       </c>
       <c r="B9" s="1">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="C9" s="1">
         <v>0</v>
@@ -2951,43 +2937,43 @@
         <v>0</v>
       </c>
       <c r="M9" s="1">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="N9" s="1">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="O9" s="1">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="P9" s="1">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="Q9" s="1">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="R9" s="1">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="S9" s="1">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="T9" s="1">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="U9" s="1">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="V9" s="1">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="W9" s="1">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="X9" s="1">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="Y9" s="1">
-        <v>99</v>
+        <v>5</v>
       </c>
       <c r="Z9" s="1">
         <v>0</v>
@@ -2999,13 +2985,13 @@
         <v>0</v>
       </c>
       <c r="AC9" s="1">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="AD9" s="1">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="AE9" s="1">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="AF9" s="1">
         <v>0</v>
@@ -3029,7 +3015,7 @@
         <v>0</v>
       </c>
       <c r="AM9" s="1">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="AN9" s="1">
         <v>0</v>
@@ -3095,16 +3081,16 @@
         <v>0</v>
       </c>
       <c r="BI9" s="1">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="BJ9" s="1">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="BK9" s="1">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="BL9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM9" s="1">
         <v>0</v>
@@ -3206,10 +3192,10 @@
         <v>0</v>
       </c>
       <c r="CT9" s="1">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="CU9" s="1">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="CV9" s="1">
         <v>99</v>
@@ -3220,7 +3206,7 @@
         <v>99</v>
       </c>
       <c r="B10" s="1">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="C10" s="1">
         <v>0</v>
@@ -3253,43 +3239,43 @@
         <v>0</v>
       </c>
       <c r="M10" s="1">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="N10" s="1">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="O10" s="1">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="P10" s="1">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="Q10" s="1">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="R10" s="1">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="S10" s="1">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="T10" s="1">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="U10" s="1">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="V10" s="1">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="W10" s="1">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="X10" s="1">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="Y10" s="1">
-        <v>99</v>
+        <v>1</v>
       </c>
       <c r="Z10" s="1">
         <v>0</v>
@@ -3298,16 +3284,16 @@
         <v>0</v>
       </c>
       <c r="AB10" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC10" s="1">
-        <v>99</v>
+        <v>1</v>
       </c>
       <c r="AD10" s="1">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="AE10" s="1">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="AF10" s="1">
         <v>0</v>
@@ -3322,7 +3308,7 @@
         <v>0</v>
       </c>
       <c r="AJ10" s="1">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="AK10" s="1">
         <v>0</v>
@@ -3331,7 +3317,7 @@
         <v>0</v>
       </c>
       <c r="AM10" s="1">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="AN10" s="1">
         <v>0</v>
@@ -3349,10 +3335,10 @@
         <v>0</v>
       </c>
       <c r="AS10" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT10" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU10" s="1">
         <v>0</v>
@@ -3376,7 +3362,7 @@
         <v>0</v>
       </c>
       <c r="BB10" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BC10" s="1">
         <v>0</v>
@@ -3397,22 +3383,22 @@
         <v>0</v>
       </c>
       <c r="BI10" s="1">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="BJ10" s="1">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="BK10" s="1">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="BL10" s="1">
-        <v>99</v>
+        <v>7</v>
       </c>
       <c r="BM10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN10" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="BO10" s="1">
         <v>0</v>
@@ -3424,10 +3410,10 @@
         <v>0</v>
       </c>
       <c r="BR10" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BS10" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BT10" s="1">
         <v>0</v>
@@ -3439,7 +3425,7 @@
         <v>0</v>
       </c>
       <c r="BW10" s="1">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="BX10" s="1">
         <v>0</v>
@@ -3448,7 +3434,7 @@
         <v>0</v>
       </c>
       <c r="BZ10" s="1">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="CA10" s="1">
         <v>0</v>
@@ -3469,7 +3455,7 @@
         <v>0</v>
       </c>
       <c r="CG10" s="1">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="CH10" s="1">
         <v>0</v>
@@ -3487,7 +3473,7 @@
         <v>0</v>
       </c>
       <c r="CM10" s="1">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="CN10" s="1">
         <v>0</v>
@@ -3508,10 +3494,10 @@
         <v>0</v>
       </c>
       <c r="CT10" s="1">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="CU10" s="1">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="CV10" s="1">
         <v>99</v>
@@ -3522,7 +3508,7 @@
         <v>99</v>
       </c>
       <c r="B11" s="1">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="C11" s="1">
         <v>0</v>
@@ -3549,271 +3535,271 @@
         <v>0</v>
       </c>
       <c r="K11" s="1">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="L11" s="1">
+        <v>0</v>
+      </c>
+      <c r="M11" s="1">
+        <v>0</v>
+      </c>
+      <c r="N11" s="1">
+        <v>0</v>
+      </c>
+      <c r="O11" s="1">
+        <v>0</v>
+      </c>
+      <c r="P11" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="1">
+        <v>0</v>
+      </c>
+      <c r="R11" s="1">
+        <v>0</v>
+      </c>
+      <c r="S11" s="1">
+        <v>0</v>
+      </c>
+      <c r="T11" s="1">
+        <v>0</v>
+      </c>
+      <c r="U11" s="1">
+        <v>0</v>
+      </c>
+      <c r="V11" s="1">
+        <v>1</v>
+      </c>
+      <c r="W11" s="1">
+        <v>1</v>
+      </c>
+      <c r="X11" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y11" s="1">
+        <v>99</v>
+      </c>
+      <c r="Z11" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA11" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB11" s="1">
+        <v>99</v>
+      </c>
+      <c r="AC11" s="1">
+        <v>99</v>
+      </c>
+      <c r="AD11" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE11" s="1">
+        <v>1</v>
+      </c>
+      <c r="AF11" s="1">
+        <v>1</v>
+      </c>
+      <c r="AG11" s="1">
+        <v>1</v>
+      </c>
+      <c r="AH11" s="1">
+        <v>1</v>
+      </c>
+      <c r="AI11" s="1">
+        <v>1</v>
+      </c>
+      <c r="AJ11" s="1">
+        <v>1</v>
+      </c>
+      <c r="AK11" s="1">
+        <v>1</v>
+      </c>
+      <c r="AL11" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM11" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN11" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO11" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP11" s="1">
+        <v>1</v>
+      </c>
+      <c r="AQ11" s="1">
+        <v>1</v>
+      </c>
+      <c r="AR11" s="1">
+        <v>1</v>
+      </c>
+      <c r="AS11" s="1">
+        <v>99</v>
+      </c>
+      <c r="AT11" s="1">
+        <v>99</v>
+      </c>
+      <c r="AU11" s="1">
+        <v>1</v>
+      </c>
+      <c r="AV11" s="1">
+        <v>1</v>
+      </c>
+      <c r="AW11" s="1">
+        <v>1</v>
+      </c>
+      <c r="AX11" s="1">
+        <v>1</v>
+      </c>
+      <c r="AY11" s="1">
+        <v>1</v>
+      </c>
+      <c r="AZ11" s="1">
+        <v>1</v>
+      </c>
+      <c r="BA11" s="1">
+        <v>1</v>
+      </c>
+      <c r="BB11" s="1">
+        <v>1</v>
+      </c>
+      <c r="BC11" s="1">
+        <v>1</v>
+      </c>
+      <c r="BD11" s="1">
+        <v>1</v>
+      </c>
+      <c r="BE11" s="1">
+        <v>1</v>
+      </c>
+      <c r="BF11" s="1">
+        <v>1</v>
+      </c>
+      <c r="BG11" s="1">
+        <v>1</v>
+      </c>
+      <c r="BH11" s="1">
+        <v>1</v>
+      </c>
+      <c r="BI11" s="1">
+        <v>1</v>
+      </c>
+      <c r="BJ11" s="1">
+        <v>1</v>
+      </c>
+      <c r="BK11" s="1">
+        <v>1</v>
+      </c>
+      <c r="BL11" s="1">
+        <v>1</v>
+      </c>
+      <c r="BM11" s="1">
+        <v>1</v>
+      </c>
+      <c r="BN11" s="1">
+        <v>1</v>
+      </c>
+      <c r="BO11" s="1">
+        <v>1</v>
+      </c>
+      <c r="BP11" s="1">
+        <v>1</v>
+      </c>
+      <c r="BQ11" s="1">
+        <v>1</v>
+      </c>
+      <c r="BR11" s="1">
+        <v>99</v>
+      </c>
+      <c r="BS11" s="1">
+        <v>99</v>
+      </c>
+      <c r="BT11" s="1">
+        <v>1</v>
+      </c>
+      <c r="BU11" s="1">
+        <v>1</v>
+      </c>
+      <c r="BV11" s="1">
+        <v>1</v>
+      </c>
+      <c r="BW11" s="1">
+        <v>1</v>
+      </c>
+      <c r="BX11" s="1">
+        <v>1</v>
+      </c>
+      <c r="BY11" s="1">
+        <v>1</v>
+      </c>
+      <c r="BZ11" s="1">
+        <v>1</v>
+      </c>
+      <c r="CA11" s="1">
+        <v>1</v>
+      </c>
+      <c r="CB11" s="1">
+        <v>1</v>
+      </c>
+      <c r="CC11" s="1">
+        <v>1</v>
+      </c>
+      <c r="CD11" s="1">
+        <v>1</v>
+      </c>
+      <c r="CE11" s="1">
+        <v>1</v>
+      </c>
+      <c r="CF11" s="1">
+        <v>1</v>
+      </c>
+      <c r="CG11" s="1">
+        <v>1</v>
+      </c>
+      <c r="CH11" s="1">
         <v>13</v>
       </c>
-      <c r="M11" s="1">
-        <v>99</v>
-      </c>
-      <c r="N11" s="1">
-        <v>99</v>
-      </c>
-      <c r="O11" s="1">
-        <v>99</v>
-      </c>
-      <c r="P11" s="1">
-        <v>99</v>
-      </c>
-      <c r="Q11" s="1">
-        <v>99</v>
-      </c>
-      <c r="R11" s="1">
-        <v>99</v>
-      </c>
-      <c r="S11" s="1">
-        <v>99</v>
-      </c>
-      <c r="T11" s="1">
-        <v>99</v>
-      </c>
-      <c r="U11" s="1">
-        <v>99</v>
-      </c>
-      <c r="V11" s="1">
-        <v>99</v>
-      </c>
-      <c r="W11" s="1">
-        <v>99</v>
-      </c>
-      <c r="X11" s="1">
-        <v>99</v>
-      </c>
-      <c r="Y11" s="1">
-        <v>99</v>
-      </c>
-      <c r="Z11" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA11" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB11" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC11" s="1">
-        <v>99</v>
-      </c>
-      <c r="AD11" s="1">
-        <v>99</v>
-      </c>
-      <c r="AE11" s="1">
-        <v>99</v>
-      </c>
-      <c r="AF11" s="1">
-        <v>0</v>
-      </c>
-      <c r="AG11" s="1">
-        <v>0</v>
-      </c>
-      <c r="AH11" s="1">
-        <v>0</v>
-      </c>
-      <c r="AI11" s="1">
-        <v>5</v>
-      </c>
-      <c r="AJ11" s="1">
-        <v>0</v>
-      </c>
-      <c r="AK11" s="1">
-        <v>1</v>
-      </c>
-      <c r="AL11" s="1">
-        <v>1</v>
-      </c>
-      <c r="AM11" s="1">
-        <v>99</v>
-      </c>
-      <c r="AN11" s="1">
-        <v>0</v>
-      </c>
-      <c r="AO11" s="1">
-        <v>0</v>
-      </c>
-      <c r="AP11" s="1">
-        <v>0</v>
-      </c>
-      <c r="AQ11" s="1">
-        <v>0</v>
-      </c>
-      <c r="AR11" s="1">
-        <v>0</v>
-      </c>
-      <c r="AS11" s="1">
-        <v>0</v>
-      </c>
-      <c r="AT11" s="1">
-        <v>0</v>
-      </c>
-      <c r="AU11" s="1">
-        <v>0</v>
-      </c>
-      <c r="AV11" s="1">
-        <v>0</v>
-      </c>
-      <c r="AW11" s="1">
-        <v>0</v>
-      </c>
-      <c r="AX11" s="1">
-        <v>0</v>
-      </c>
-      <c r="AY11" s="1">
-        <v>0</v>
-      </c>
-      <c r="AZ11" s="1">
-        <v>0</v>
-      </c>
-      <c r="BA11" s="1">
-        <v>0</v>
-      </c>
-      <c r="BB11" s="1">
-        <v>0</v>
-      </c>
-      <c r="BC11" s="1">
-        <v>0</v>
-      </c>
-      <c r="BD11" s="1">
-        <v>0</v>
-      </c>
-      <c r="BE11" s="1">
-        <v>0</v>
-      </c>
-      <c r="BF11" s="1">
-        <v>0</v>
-      </c>
-      <c r="BG11" s="1">
-        <v>0</v>
-      </c>
-      <c r="BH11" s="1">
-        <v>0</v>
-      </c>
-      <c r="BI11" s="1">
-        <v>99</v>
-      </c>
-      <c r="BJ11" s="1">
-        <v>99</v>
-      </c>
-      <c r="BK11" s="1">
-        <v>99</v>
-      </c>
-      <c r="BL11" s="1">
-        <v>99</v>
-      </c>
-      <c r="BM11" s="1">
-        <v>99</v>
-      </c>
-      <c r="BN11" s="1">
-        <v>1</v>
-      </c>
-      <c r="BO11" s="1">
-        <v>0</v>
-      </c>
-      <c r="BP11" s="1">
-        <v>0</v>
-      </c>
-      <c r="BQ11" s="1">
-        <v>0</v>
-      </c>
-      <c r="BR11" s="1">
-        <v>0</v>
-      </c>
-      <c r="BS11" s="1">
-        <v>0</v>
-      </c>
-      <c r="BT11" s="1">
-        <v>0</v>
-      </c>
-      <c r="BU11" s="1">
-        <v>0</v>
-      </c>
-      <c r="BV11" s="1">
-        <v>0</v>
-      </c>
-      <c r="BW11" s="1">
-        <v>0</v>
-      </c>
-      <c r="BX11" s="1">
-        <v>0</v>
-      </c>
-      <c r="BY11" s="1">
-        <v>0</v>
-      </c>
-      <c r="BZ11" s="1">
-        <v>0</v>
-      </c>
-      <c r="CA11" s="1">
-        <v>0</v>
-      </c>
-      <c r="CB11" s="1">
-        <v>0</v>
-      </c>
-      <c r="CC11" s="1">
-        <v>0</v>
-      </c>
-      <c r="CD11" s="1">
-        <v>0</v>
-      </c>
-      <c r="CE11" s="1">
-        <v>0</v>
-      </c>
-      <c r="CF11" s="1">
-        <v>0</v>
-      </c>
-      <c r="CG11" s="1">
-        <v>0</v>
-      </c>
-      <c r="CH11" s="1">
-        <v>0</v>
-      </c>
       <c r="CI11" s="1">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="CJ11" s="1">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="CK11" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CL11" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CM11" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CN11" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CO11" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CP11" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CQ11" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CR11" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CS11" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CT11" s="1">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="CU11" s="1">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="CV11" s="1">
         <v>99</v>
@@ -3824,7 +3810,7 @@
         <v>99</v>
       </c>
       <c r="B12" s="1">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="C12" s="1">
         <v>0</v>
@@ -3851,271 +3837,271 @@
         <v>0</v>
       </c>
       <c r="K12" s="1">
+        <v>0</v>
+      </c>
+      <c r="L12" s="1">
+        <v>0</v>
+      </c>
+      <c r="M12" s="1">
+        <v>0</v>
+      </c>
+      <c r="N12" s="1">
+        <v>0</v>
+      </c>
+      <c r="O12" s="1">
+        <v>0</v>
+      </c>
+      <c r="P12" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="1">
+        <v>0</v>
+      </c>
+      <c r="R12" s="1">
+        <v>0</v>
+      </c>
+      <c r="S12" s="1">
+        <v>0</v>
+      </c>
+      <c r="T12" s="1">
+        <v>0</v>
+      </c>
+      <c r="U12" s="1">
+        <v>0</v>
+      </c>
+      <c r="V12" s="1">
+        <v>99</v>
+      </c>
+      <c r="W12" s="1">
+        <v>99</v>
+      </c>
+      <c r="X12" s="1">
+        <v>99</v>
+      </c>
+      <c r="Y12" s="1">
+        <v>99</v>
+      </c>
+      <c r="Z12" s="1">
+        <v>99</v>
+      </c>
+      <c r="AA12" s="1">
+        <v>99</v>
+      </c>
+      <c r="AB12" s="1">
+        <v>99</v>
+      </c>
+      <c r="AC12" s="1">
+        <v>99</v>
+      </c>
+      <c r="AD12" s="1">
+        <v>99</v>
+      </c>
+      <c r="AE12" s="1">
+        <v>99</v>
+      </c>
+      <c r="AF12" s="1">
+        <v>99</v>
+      </c>
+      <c r="AG12" s="1">
+        <v>99</v>
+      </c>
+      <c r="AH12" s="1">
+        <v>99</v>
+      </c>
+      <c r="AI12" s="1">
+        <v>99</v>
+      </c>
+      <c r="AJ12" s="1">
+        <v>99</v>
+      </c>
+      <c r="AK12" s="1">
+        <v>99</v>
+      </c>
+      <c r="AL12" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM12" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN12" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO12" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP12" s="1">
+        <v>99</v>
+      </c>
+      <c r="AQ12" s="1">
+        <v>99</v>
+      </c>
+      <c r="AR12" s="1">
+        <v>99</v>
+      </c>
+      <c r="AS12" s="1">
+        <v>99</v>
+      </c>
+      <c r="AT12" s="1">
+        <v>99</v>
+      </c>
+      <c r="AU12" s="1">
+        <v>99</v>
+      </c>
+      <c r="AV12" s="1">
+        <v>99</v>
+      </c>
+      <c r="AW12" s="1">
+        <v>99</v>
+      </c>
+      <c r="AX12" s="1">
+        <v>99</v>
+      </c>
+      <c r="AY12" s="1">
+        <v>99</v>
+      </c>
+      <c r="AZ12" s="1">
+        <v>99</v>
+      </c>
+      <c r="BA12" s="1">
+        <v>99</v>
+      </c>
+      <c r="BB12" s="1">
+        <v>99</v>
+      </c>
+      <c r="BC12" s="1">
+        <v>99</v>
+      </c>
+      <c r="BD12" s="1">
+        <v>99</v>
+      </c>
+      <c r="BE12" s="1">
+        <v>99</v>
+      </c>
+      <c r="BF12" s="1">
+        <v>99</v>
+      </c>
+      <c r="BG12" s="1">
+        <v>99</v>
+      </c>
+      <c r="BH12" s="1">
+        <v>99</v>
+      </c>
+      <c r="BI12" s="1">
+        <v>99</v>
+      </c>
+      <c r="BJ12" s="1">
+        <v>99</v>
+      </c>
+      <c r="BK12" s="1">
+        <v>99</v>
+      </c>
+      <c r="BL12" s="1">
+        <v>99</v>
+      </c>
+      <c r="BM12" s="1">
+        <v>99</v>
+      </c>
+      <c r="BN12" s="1">
+        <v>99</v>
+      </c>
+      <c r="BO12" s="1">
+        <v>99</v>
+      </c>
+      <c r="BP12" s="1">
+        <v>99</v>
+      </c>
+      <c r="BQ12" s="1">
+        <v>99</v>
+      </c>
+      <c r="BR12" s="1">
+        <v>99</v>
+      </c>
+      <c r="BS12" s="1">
+        <v>99</v>
+      </c>
+      <c r="BT12" s="1">
+        <v>99</v>
+      </c>
+      <c r="BU12" s="1">
+        <v>99</v>
+      </c>
+      <c r="BV12" s="1">
+        <v>99</v>
+      </c>
+      <c r="BW12" s="1">
+        <v>99</v>
+      </c>
+      <c r="BX12" s="1">
+        <v>99</v>
+      </c>
+      <c r="BY12" s="1">
+        <v>99</v>
+      </c>
+      <c r="BZ12" s="1">
+        <v>99</v>
+      </c>
+      <c r="CA12" s="1">
+        <v>99</v>
+      </c>
+      <c r="CB12" s="1">
+        <v>99</v>
+      </c>
+      <c r="CC12" s="1">
+        <v>99</v>
+      </c>
+      <c r="CD12" s="1">
+        <v>99</v>
+      </c>
+      <c r="CE12" s="1">
+        <v>99</v>
+      </c>
+      <c r="CF12" s="1">
+        <v>99</v>
+      </c>
+      <c r="CG12" s="1">
+        <v>99</v>
+      </c>
+      <c r="CH12" s="1">
+        <v>99</v>
+      </c>
+      <c r="CI12" s="1">
         <v>13</v>
       </c>
-      <c r="L12" s="1">
-        <v>99</v>
-      </c>
-      <c r="M12" s="1">
-        <v>99</v>
-      </c>
-      <c r="N12" s="1">
-        <v>99</v>
-      </c>
-      <c r="O12" s="1">
-        <v>99</v>
-      </c>
-      <c r="P12" s="1">
-        <v>99</v>
-      </c>
-      <c r="Q12" s="1">
-        <v>99</v>
-      </c>
-      <c r="R12" s="1">
-        <v>99</v>
-      </c>
-      <c r="S12" s="1">
-        <v>99</v>
-      </c>
-      <c r="T12" s="1">
-        <v>99</v>
-      </c>
-      <c r="U12" s="1">
-        <v>99</v>
-      </c>
-      <c r="V12" s="1">
-        <v>99</v>
-      </c>
-      <c r="W12" s="1">
-        <v>99</v>
-      </c>
-      <c r="X12" s="1">
-        <v>99</v>
-      </c>
-      <c r="Y12" s="1">
-        <v>99</v>
-      </c>
-      <c r="Z12" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA12" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB12" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC12" s="1">
-        <v>99</v>
-      </c>
-      <c r="AD12" s="1">
-        <v>99</v>
-      </c>
-      <c r="AE12" s="1">
-        <v>99</v>
-      </c>
-      <c r="AF12" s="1">
-        <v>0</v>
-      </c>
-      <c r="AG12" s="1">
-        <v>0</v>
-      </c>
-      <c r="AH12" s="1">
-        <v>0</v>
-      </c>
-      <c r="AI12" s="1">
-        <v>1</v>
-      </c>
-      <c r="AJ12" s="1">
-        <v>1</v>
-      </c>
-      <c r="AK12" s="1">
-        <v>99</v>
-      </c>
-      <c r="AL12" s="1">
-        <v>99</v>
-      </c>
-      <c r="AM12" s="1">
-        <v>99</v>
-      </c>
-      <c r="AN12" s="1">
-        <v>0</v>
-      </c>
-      <c r="AO12" s="1">
-        <v>0</v>
-      </c>
-      <c r="AP12" s="1">
-        <v>0</v>
-      </c>
-      <c r="AQ12" s="1">
-        <v>0</v>
-      </c>
-      <c r="AR12" s="1">
-        <v>0</v>
-      </c>
-      <c r="AS12" s="1">
-        <v>0</v>
-      </c>
-      <c r="AT12" s="1">
-        <v>0</v>
-      </c>
-      <c r="AU12" s="1">
-        <v>0</v>
-      </c>
-      <c r="AV12" s="1">
-        <v>0</v>
-      </c>
-      <c r="AW12" s="1">
-        <v>0</v>
-      </c>
-      <c r="AX12" s="1">
-        <v>0</v>
-      </c>
-      <c r="AY12" s="1">
-        <v>0</v>
-      </c>
-      <c r="AZ12" s="1">
-        <v>0</v>
-      </c>
-      <c r="BA12" s="1">
-        <v>0</v>
-      </c>
-      <c r="BB12" s="1">
-        <v>0</v>
-      </c>
-      <c r="BC12" s="1">
-        <v>0</v>
-      </c>
-      <c r="BD12" s="1">
-        <v>0</v>
-      </c>
-      <c r="BE12" s="1">
-        <v>0</v>
-      </c>
-      <c r="BF12" s="1">
-        <v>0</v>
-      </c>
-      <c r="BG12" s="1">
-        <v>0</v>
-      </c>
-      <c r="BH12" s="1">
-        <v>0</v>
-      </c>
-      <c r="BI12" s="1">
-        <v>99</v>
-      </c>
-      <c r="BJ12" s="1">
-        <v>99</v>
-      </c>
-      <c r="BK12" s="1">
-        <v>99</v>
-      </c>
-      <c r="BL12" s="1">
-        <v>99</v>
-      </c>
-      <c r="BM12" s="1">
-        <v>99</v>
-      </c>
-      <c r="BN12" s="1">
-        <v>99</v>
-      </c>
-      <c r="BO12" s="1">
-        <v>1</v>
-      </c>
-      <c r="BP12" s="1">
-        <v>0</v>
-      </c>
-      <c r="BQ12" s="1">
-        <v>0</v>
-      </c>
-      <c r="BR12" s="1">
-        <v>0</v>
-      </c>
-      <c r="BS12" s="1">
-        <v>0</v>
-      </c>
-      <c r="BT12" s="1">
-        <v>0</v>
-      </c>
-      <c r="BU12" s="1">
-        <v>0</v>
-      </c>
-      <c r="BV12" s="1">
-        <v>0</v>
-      </c>
-      <c r="BW12" s="1">
-        <v>0</v>
-      </c>
-      <c r="BX12" s="1">
-        <v>0</v>
-      </c>
-      <c r="BY12" s="1">
-        <v>0</v>
-      </c>
-      <c r="BZ12" s="1">
-        <v>0</v>
-      </c>
-      <c r="CA12" s="1">
-        <v>0</v>
-      </c>
-      <c r="CB12" s="1">
-        <v>0</v>
-      </c>
-      <c r="CC12" s="1">
-        <v>0</v>
-      </c>
-      <c r="CD12" s="1">
-        <v>0</v>
-      </c>
-      <c r="CE12" s="1">
-        <v>0</v>
-      </c>
-      <c r="CF12" s="1">
-        <v>0</v>
-      </c>
-      <c r="CG12" s="1">
-        <v>0</v>
-      </c>
-      <c r="CH12" s="1">
-        <v>0</v>
-      </c>
-      <c r="CI12" s="1">
-        <v>0</v>
-      </c>
       <c r="CJ12" s="1">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="CK12" s="1">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="CL12" s="1">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="CM12" s="1">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="CN12" s="1">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="CO12" s="1">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="CP12" s="1">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="CQ12" s="1">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="CR12" s="1">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="CS12" s="1">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="CT12" s="1">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="CU12" s="1">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="CV12" s="1">
         <v>99</v>
@@ -4126,7 +4112,7 @@
         <v>99</v>
       </c>
       <c r="B13" s="1">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="C13" s="1">
         <v>0</v>
@@ -4150,40 +4136,40 @@
         <v>0</v>
       </c>
       <c r="J13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K13" s="1">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="L13" s="1">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="M13" s="1">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="N13" s="1">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="O13" s="1">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="P13" s="1">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="Q13" s="1">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="R13" s="1">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="S13" s="1">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="T13" s="1">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="U13" s="1">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="V13" s="1">
         <v>99</v>
@@ -4198,13 +4184,13 @@
         <v>99</v>
       </c>
       <c r="Z13" s="1">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="AA13" s="1">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="AB13" s="1">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="AC13" s="1">
         <v>99</v>
@@ -4216,22 +4202,22 @@
         <v>99</v>
       </c>
       <c r="AF13" s="1">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="AG13" s="1">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="AH13" s="1">
-        <v>23</v>
+        <v>99</v>
       </c>
       <c r="AI13" s="1">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="AJ13" s="1">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="AK13" s="1">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="AL13" s="1">
         <v>0</v>
@@ -4246,61 +4232,61 @@
         <v>0</v>
       </c>
       <c r="AP13" s="1">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="AQ13" s="1">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="AR13" s="1">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="AS13" s="1">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="AT13" s="1">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="AU13" s="1">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="AV13" s="1">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="AW13" s="1">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="AX13" s="1">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="AY13" s="1">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="AZ13" s="1">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="BA13" s="1">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="BB13" s="1">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="BC13" s="1">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="BD13" s="1">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="BE13" s="1">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="BF13" s="1">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="BG13" s="1">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="BH13" s="1">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="BI13" s="1">
         <v>99</v>
@@ -4324,100 +4310,100 @@
         <v>99</v>
       </c>
       <c r="BP13" s="1">
-        <v>1</v>
+        <v>99</v>
       </c>
       <c r="BQ13" s="1">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="BR13" s="1">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="BS13" s="1">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="BT13" s="1">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="BU13" s="1">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="BV13" s="1">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="BW13" s="1">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="BX13" s="1">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="BY13" s="1">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="BZ13" s="1">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="CA13" s="1">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="CB13" s="1">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="CC13" s="1">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="CD13" s="1">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="CE13" s="1">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="CF13" s="1">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="CG13" s="1">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="CH13" s="1">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="CI13" s="1">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="CJ13" s="1">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="CK13" s="1">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="CL13" s="1">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="CM13" s="1">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="CN13" s="1">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="CO13" s="1">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="CP13" s="1">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="CQ13" s="1">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="CR13" s="1">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="CS13" s="1">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="CT13" s="1">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="CU13" s="1">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="CV13" s="1">
         <v>99</v>
@@ -4428,7 +4414,7 @@
         <v>99</v>
       </c>
       <c r="B14" s="1">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="C14" s="1">
         <v>0</v>
@@ -4446,46 +4432,46 @@
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J14" s="1">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="K14" s="1">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="L14" s="1">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="M14" s="1">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="N14" s="1">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="O14" s="1">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="Q14" s="1">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="R14" s="1">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="S14" s="1">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="T14" s="1">
-        <v>99</v>
+        <v>15</v>
       </c>
       <c r="U14" s="1">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="V14" s="1">
         <v>99</v>
@@ -4500,13 +4486,13 @@
         <v>99</v>
       </c>
       <c r="Z14" s="1">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="AA14" s="1">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="AB14" s="1">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="AC14" s="1">
         <v>99</v>
@@ -4518,208 +4504,208 @@
         <v>99</v>
       </c>
       <c r="AF14" s="1">
-        <v>1</v>
+        <v>99</v>
       </c>
       <c r="AG14" s="1">
-        <v>1</v>
+        <v>99</v>
       </c>
       <c r="AH14" s="1">
-        <v>1</v>
+        <v>99</v>
       </c>
       <c r="AI14" s="1">
-        <v>1</v>
+        <v>99</v>
       </c>
       <c r="AJ14" s="1">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="AK14" s="1">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="AL14" s="1">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="AM14" s="1">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="AN14" s="1">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="AO14" s="1">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="AP14" s="1">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="AQ14" s="1">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="AR14" s="1">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="AS14" s="1">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="AT14" s="1">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="AU14" s="1">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="AV14" s="1">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="AW14" s="1">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="AX14" s="1">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="AY14" s="1">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="AZ14" s="1">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="BA14" s="1">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="BB14" s="1">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="BC14" s="1">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="BD14" s="1">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="BE14" s="1">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="BF14" s="1">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="BG14" s="1">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="BH14" s="1">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="BI14" s="1">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="BJ14" s="1">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="BK14" s="1">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="BL14" s="1">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="BM14" s="1">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="BN14" s="1">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="BO14" s="1">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="BP14" s="1">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="BQ14" s="1">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="BR14" s="1">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="BS14" s="1">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="BT14" s="1">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="BU14" s="1">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="BV14" s="1">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="BW14" s="1">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="BX14" s="1">
-        <v>8</v>
+        <v>99</v>
       </c>
       <c r="BY14" s="1">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="BZ14" s="1">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="CA14" s="1">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="CB14" s="1">
-        <v>4</v>
+        <v>99</v>
       </c>
       <c r="CC14" s="1">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="CD14" s="1">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="CE14" s="1">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="CF14" s="1">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="CG14" s="1">
-        <v>4</v>
+        <v>99</v>
       </c>
       <c r="CH14" s="1">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="CI14" s="1">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="CJ14" s="1">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="CK14" s="1">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="CL14" s="1">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="CM14" s="1">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="CN14" s="1">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="CO14" s="1">
-        <v>8</v>
+        <v>99</v>
       </c>
       <c r="CP14" s="1">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="CQ14" s="1">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="CR14" s="1">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="CS14" s="1">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="CT14" s="1">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="CU14" s="1">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="CV14" s="1">
         <v>99</v>
@@ -4727,67 +4713,67 @@
     </row>
     <row r="15" spans="1:100" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="1">
-        <v>1</v>
+        <v>99</v>
       </c>
       <c r="B15" s="1">
-        <v>1</v>
+        <v>99</v>
       </c>
       <c r="C15" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D15" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I15" s="1">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="J15" s="1">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="K15" s="1">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="L15" s="1">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="M15" s="1">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="N15" s="1">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="O15" s="1">
-        <v>99</v>
+        <v>1</v>
       </c>
       <c r="P15" s="1">
-        <v>99</v>
+        <v>1</v>
       </c>
       <c r="Q15" s="1">
-        <v>99</v>
+        <v>1</v>
       </c>
       <c r="R15" s="1">
-        <v>99</v>
+        <v>1</v>
       </c>
       <c r="S15" s="1">
-        <v>99</v>
+        <v>13</v>
       </c>
       <c r="T15" s="1">
-        <v>99</v>
+        <v>13</v>
       </c>
       <c r="U15" s="1">
-        <v>99</v>
+        <v>13</v>
       </c>
       <c r="V15" s="1">
         <v>99</v>
@@ -4802,13 +4788,13 @@
         <v>99</v>
       </c>
       <c r="Z15" s="1">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="AA15" s="1">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="AB15" s="1">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="AC15" s="1">
         <v>99</v>
@@ -4820,91 +4806,91 @@
         <v>99</v>
       </c>
       <c r="AF15" s="1">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="AG15" s="1">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="AH15" s="1">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="AI15" s="1">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="AJ15" s="1">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="AK15" s="1">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="AL15" s="1">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="AM15" s="1">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="AN15" s="1">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="AO15" s="1">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="AP15" s="1">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="AQ15" s="1">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="AR15" s="1">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="AS15" s="1">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="AT15" s="1">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="AU15" s="1">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="AV15" s="1">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="AW15" s="1">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="AX15" s="1">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="AY15" s="1">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="AZ15" s="1">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="BA15" s="1">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="BB15" s="1">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="BC15" s="1">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="BD15" s="1">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="BE15" s="1">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="BF15" s="1">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="BG15" s="1">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="BH15" s="1">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="BI15" s="1">
         <v>99</v>
@@ -4913,118 +4899,118 @@
         <v>99</v>
       </c>
       <c r="BK15" s="1">
-        <v>13</v>
+        <v>99</v>
       </c>
       <c r="BL15" s="1">
-        <v>13</v>
+        <v>99</v>
       </c>
       <c r="BM15" s="1">
-        <v>13</v>
+        <v>99</v>
       </c>
       <c r="BN15" s="1">
-        <v>13</v>
+        <v>99</v>
       </c>
       <c r="BO15" s="1">
-        <v>13</v>
+        <v>99</v>
       </c>
       <c r="BP15" s="1">
-        <v>13</v>
+        <v>99</v>
       </c>
       <c r="BQ15" s="1">
-        <v>13</v>
+        <v>99</v>
       </c>
       <c r="BR15" s="1">
-        <v>13</v>
+        <v>99</v>
       </c>
       <c r="BS15" s="1">
-        <v>13</v>
+        <v>99</v>
       </c>
       <c r="BT15" s="1">
-        <v>13</v>
+        <v>99</v>
       </c>
       <c r="BU15" s="1">
-        <v>13</v>
+        <v>99</v>
       </c>
       <c r="BV15" s="1">
-        <v>13</v>
+        <v>99</v>
       </c>
       <c r="BW15" s="1">
-        <v>13</v>
+        <v>99</v>
       </c>
       <c r="BX15" s="1">
-        <v>13</v>
+        <v>99</v>
       </c>
       <c r="BY15" s="1">
-        <v>13</v>
+        <v>99</v>
       </c>
       <c r="BZ15" s="1">
-        <v>13</v>
+        <v>99</v>
       </c>
       <c r="CA15" s="1">
-        <v>13</v>
+        <v>99</v>
       </c>
       <c r="CB15" s="1">
-        <v>13</v>
+        <v>99</v>
       </c>
       <c r="CC15" s="1">
-        <v>13</v>
+        <v>99</v>
       </c>
       <c r="CD15" s="1">
-        <v>13</v>
+        <v>99</v>
       </c>
       <c r="CE15" s="1">
-        <v>13</v>
+        <v>99</v>
       </c>
       <c r="CF15" s="1">
-        <v>13</v>
+        <v>99</v>
       </c>
       <c r="CG15" s="1">
-        <v>13</v>
+        <v>99</v>
       </c>
       <c r="CH15" s="1">
-        <v>13</v>
+        <v>99</v>
       </c>
       <c r="CI15" s="1">
-        <v>13</v>
+        <v>99</v>
       </c>
       <c r="CJ15" s="1">
-        <v>1</v>
+        <v>99</v>
       </c>
       <c r="CK15" s="1">
-        <v>1</v>
+        <v>99</v>
       </c>
       <c r="CL15" s="1">
-        <v>1</v>
+        <v>99</v>
       </c>
       <c r="CM15" s="1">
-        <v>1</v>
+        <v>99</v>
       </c>
       <c r="CN15" s="1">
-        <v>1</v>
+        <v>99</v>
       </c>
       <c r="CO15" s="1">
-        <v>1</v>
+        <v>99</v>
       </c>
       <c r="CP15" s="1">
-        <v>1</v>
+        <v>99</v>
       </c>
       <c r="CQ15" s="1">
-        <v>1</v>
+        <v>99</v>
       </c>
       <c r="CR15" s="1">
-        <v>1</v>
+        <v>99</v>
       </c>
       <c r="CS15" s="1">
-        <v>1</v>
+        <v>99</v>
       </c>
       <c r="CT15" s="1">
-        <v>3</v>
+        <v>99</v>
       </c>
       <c r="CU15" s="1">
-        <v>1</v>
+        <v>99</v>
       </c>
       <c r="CV15" s="1">
-        <v>1</v>
+        <v>99</v>
       </c>
     </row>
     <row r="16" spans="1:100" ht="21" customHeight="1" x14ac:dyDescent="0.15">
@@ -5035,40 +5021,40 @@
         <v>99</v>
       </c>
       <c r="C16" s="1">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="D16" s="1">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="E16" s="1">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="F16" s="1">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="G16" s="1">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="H16" s="1">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="I16" s="1">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="J16" s="1">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="K16" s="1">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="L16" s="1">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="M16" s="1">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="N16" s="1">
-        <v>99</v>
+        <v>1</v>
       </c>
       <c r="O16" s="1">
         <v>99</v>
@@ -5104,13 +5090,13 @@
         <v>99</v>
       </c>
       <c r="Z16" s="1">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="AA16" s="1">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="AB16" s="1">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="AC16" s="1">
         <v>99</v>
@@ -5125,88 +5111,88 @@
         <v>99</v>
       </c>
       <c r="AG16" s="1">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="AH16" s="1">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="AI16" s="1">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="AJ16" s="1">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="AK16" s="1">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="AL16" s="1">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="AM16" s="1">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="AN16" s="1">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="AO16" s="1">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="AP16" s="1">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="AQ16" s="1">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="AR16" s="1">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="AS16" s="1">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="AT16" s="1">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="AU16" s="1">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="AV16" s="1">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="AW16" s="1">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="AX16" s="1">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="AY16" s="1">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="AZ16" s="1">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="BA16" s="1">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="BB16" s="1">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="BC16" s="1">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="BD16" s="1">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="BE16" s="1">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="BF16" s="1">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="BG16" s="1">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="BH16" s="1">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="BI16" s="1">
         <v>99</v>
@@ -5337,37 +5323,37 @@
         <v>99</v>
       </c>
       <c r="C17" s="1">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="D17" s="1">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="E17" s="1">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="F17" s="1">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="G17" s="1">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="H17" s="1">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="I17" s="1">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="J17" s="1">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="K17" s="1">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="L17" s="1">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="M17" s="1">
-        <v>99</v>
+        <v>1</v>
       </c>
       <c r="N17" s="1">
         <v>99</v>
@@ -5406,13 +5392,13 @@
         <v>99</v>
       </c>
       <c r="Z17" s="1">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="AA17" s="1">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="AB17" s="1">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="AC17" s="1">
         <v>99</v>
@@ -5427,205 +5413,205 @@
         <v>99</v>
       </c>
       <c r="AG17" s="1">
-        <v>13</v>
+        <v>99</v>
       </c>
       <c r="AH17" s="1">
-        <v>13</v>
+        <v>99</v>
       </c>
       <c r="AI17" s="1">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="AJ17" s="1">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="AK17" s="1">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="AL17" s="1">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="AM17" s="1">
-        <v>13</v>
+        <v>99</v>
       </c>
       <c r="AN17" s="1">
-        <v>13</v>
+        <v>99</v>
       </c>
       <c r="AO17" s="1">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="AP17" s="1">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="AQ17" s="1">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="AR17" s="1">
-        <v>20</v>
+        <v>99</v>
       </c>
       <c r="AS17" s="1">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="AT17" s="1">
-        <v>22</v>
+        <v>99</v>
       </c>
       <c r="AU17" s="1">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="AV17" s="1">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="AW17" s="1">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="AX17" s="1">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="AY17" s="1">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="AZ17" s="1">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="BA17" s="1">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="BB17" s="1">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="BC17" s="1">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="BD17" s="1">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="BE17" s="1">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="BF17" s="1">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="BG17" s="1">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="BH17" s="1">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="BI17" s="1">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="BJ17" s="1">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="BK17" s="1">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="BL17" s="1">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="BM17" s="1">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="BN17" s="1">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="BO17" s="1">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="BP17" s="1">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="BQ17" s="1">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="BR17" s="1">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="BS17" s="1">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="BT17" s="1">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="BU17" s="1">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="BV17" s="1">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="BW17" s="1">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="BX17" s="1">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="BY17" s="1">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="BZ17" s="1">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="CA17" s="1">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="CB17" s="1">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="CC17" s="1">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="CD17" s="1">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="CE17" s="1">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="CF17" s="1">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="CG17" s="1">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="CH17" s="1">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="CI17" s="1">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="CJ17" s="1">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="CK17" s="1">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="CL17" s="1">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="CM17" s="1">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="CN17" s="1">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="CO17" s="1">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="CP17" s="1">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="CQ17" s="1">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="CR17" s="1">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="CS17" s="1">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="CT17" s="1">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="CU17" s="1">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="CV17" s="1">
         <v>99</v>
@@ -5639,34 +5625,34 @@
         <v>99</v>
       </c>
       <c r="C18" s="1">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="D18" s="1">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="E18" s="1">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="F18" s="1">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="G18" s="1">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="H18" s="1">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="I18" s="1">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="J18" s="1">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="K18" s="1">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="L18" s="1">
-        <v>99</v>
+        <v>1</v>
       </c>
       <c r="M18" s="1">
         <v>99</v>
@@ -5708,13 +5694,13 @@
         <v>99</v>
       </c>
       <c r="Z18" s="1">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="AA18" s="1">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="AB18" s="1">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="AC18" s="1">
         <v>99</v>
@@ -5728,206 +5714,206 @@
       <c r="AF18" s="1">
         <v>99</v>
       </c>
-      <c r="AG18" s="2">
-        <v>13</v>
+      <c r="AG18" s="1">
+        <v>99</v>
       </c>
       <c r="AH18" s="1">
-        <v>13</v>
+        <v>99</v>
       </c>
       <c r="AI18" s="1">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="AJ18" s="1">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="AK18" s="1">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="AL18" s="1">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="AM18" s="1">
-        <v>13</v>
+        <v>99</v>
       </c>
       <c r="AN18" s="1">
-        <v>13</v>
+        <v>99</v>
       </c>
       <c r="AO18" s="1">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="AP18" s="1">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="AQ18" s="1">
-        <v>13</v>
+        <v>99</v>
       </c>
       <c r="AR18" s="1">
-        <v>13</v>
+        <v>99</v>
       </c>
       <c r="AS18" s="1">
-        <v>13</v>
+        <v>99</v>
       </c>
       <c r="AT18" s="1">
-        <v>13</v>
+        <v>99</v>
       </c>
       <c r="AU18" s="1">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="AV18" s="1">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="AW18" s="1">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="AX18" s="1">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="AY18" s="1">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="AZ18" s="1">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="BA18" s="1">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="BB18" s="1">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="BC18" s="1">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="BD18" s="1">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="BE18" s="1">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="BF18" s="1">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="BG18" s="1">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="BH18" s="1">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="BI18" s="1">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="BJ18" s="1">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="BK18" s="1">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="BL18" s="1">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="BM18" s="1">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="BN18" s="1">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="BO18" s="1">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="BP18" s="1">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="BQ18" s="1">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="BR18" s="1">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="BS18" s="1">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="BT18" s="1">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="BU18" s="1">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="BV18" s="1">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="BW18" s="1">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="BX18" s="1">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="BY18" s="1">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="BZ18" s="1">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="CA18" s="1">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="CB18" s="1">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="CC18" s="1">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="CD18" s="1">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="CE18" s="1">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="CF18" s="1">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="CG18" s="1">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="CH18" s="1">
-        <v>4</v>
+        <v>99</v>
       </c>
       <c r="CI18" s="1">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="CJ18" s="1">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="CK18" s="1">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="CL18" s="1">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="CM18" s="1">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="CN18" s="1">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="CO18" s="1">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="CP18" s="1">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="CQ18" s="1">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="CR18" s="1">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="CS18" s="1">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="CT18" s="1">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="CU18" s="1">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="CV18" s="1">
         <v>99</v>
@@ -5941,295 +5927,295 @@
         <v>99</v>
       </c>
       <c r="C19" s="1">
-        <v>99</v>
+        <v>1</v>
       </c>
       <c r="D19" s="1">
-        <v>99</v>
+        <v>1</v>
       </c>
       <c r="E19" s="1">
-        <v>99</v>
+        <v>1</v>
       </c>
       <c r="F19" s="1">
-        <v>99</v>
+        <v>1</v>
       </c>
       <c r="G19" s="1">
-        <v>99</v>
+        <v>1</v>
       </c>
       <c r="H19" s="1">
-        <v>99</v>
+        <v>1</v>
       </c>
       <c r="I19" s="1">
-        <v>99</v>
+        <v>1</v>
       </c>
       <c r="J19" s="1">
-        <v>99</v>
+        <v>1</v>
       </c>
       <c r="K19" s="1">
-        <v>99</v>
+        <v>1</v>
       </c>
       <c r="L19" s="1">
-        <v>99</v>
+        <v>1</v>
       </c>
       <c r="M19" s="1">
-        <v>99</v>
+        <v>1</v>
       </c>
       <c r="N19" s="1">
-        <v>99</v>
+        <v>1</v>
       </c>
       <c r="O19" s="1">
-        <v>99</v>
+        <v>1</v>
       </c>
       <c r="P19" s="1">
-        <v>99</v>
+        <v>1</v>
       </c>
       <c r="Q19" s="1">
-        <v>99</v>
+        <v>1</v>
       </c>
       <c r="R19" s="1">
-        <v>99</v>
+        <v>1</v>
       </c>
       <c r="S19" s="1">
-        <v>99</v>
+        <v>1</v>
       </c>
       <c r="T19" s="1">
-        <v>99</v>
+        <v>1</v>
       </c>
       <c r="U19" s="1">
-        <v>99</v>
+        <v>1</v>
       </c>
       <c r="V19" s="1">
-        <v>99</v>
+        <v>1</v>
       </c>
       <c r="W19" s="1">
-        <v>99</v>
+        <v>1</v>
       </c>
       <c r="X19" s="1">
-        <v>99</v>
+        <v>1</v>
       </c>
       <c r="Y19" s="1">
-        <v>99</v>
+        <v>1</v>
       </c>
       <c r="Z19" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA19" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB19" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC19" s="1">
-        <v>99</v>
+        <v>1</v>
       </c>
       <c r="AD19" s="1">
-        <v>99</v>
+        <v>1</v>
       </c>
       <c r="AE19" s="1">
-        <v>99</v>
+        <v>1</v>
       </c>
       <c r="AF19" s="1">
-        <v>99</v>
+        <v>1</v>
       </c>
       <c r="AG19" s="1">
-        <v>99</v>
+        <v>1</v>
       </c>
       <c r="AH19" s="1">
-        <v>99</v>
+        <v>1</v>
       </c>
       <c r="AI19" s="1">
-        <v>99</v>
+        <v>1</v>
       </c>
       <c r="AJ19" s="1">
-        <v>99</v>
+        <v>1</v>
       </c>
       <c r="AK19" s="1">
-        <v>99</v>
+        <v>1</v>
       </c>
       <c r="AL19" s="1">
-        <v>99</v>
+        <v>1</v>
       </c>
       <c r="AM19" s="1">
-        <v>99</v>
+        <v>1</v>
       </c>
       <c r="AN19" s="1">
-        <v>99</v>
+        <v>1</v>
       </c>
       <c r="AO19" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP19" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ19" s="1">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="AR19" s="1">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="AS19" s="1">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="AT19" s="1">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="AU19" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV19" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW19" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX19" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY19" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ19" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA19" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB19" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC19" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD19" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE19" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF19" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG19" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH19" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BI19" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BJ19" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BK19" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BL19" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BM19" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BN19" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BO19" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BP19" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BQ19" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BR19" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BS19" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BT19" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BU19" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BV19" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BW19" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BX19" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BY19" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BZ19" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CA19" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CB19" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CC19" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CD19" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CE19" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CF19" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CG19" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CH19" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="CI19" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CJ19" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CK19" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CL19" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CM19" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CN19" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CO19" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CP19" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CQ19" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CR19" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CS19" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CT19" s="1">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="CU19" s="1">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="CV19" s="1">
         <v>99</v>
@@ -6312,13 +6298,13 @@
         <v>99</v>
       </c>
       <c r="Z20" s="1">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="AA20" s="1">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="AB20" s="1">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="AC20" s="1">
         <v>99</v>
@@ -6357,64 +6343,64 @@
         <v>99</v>
       </c>
       <c r="AO20" s="1">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="AP20" s="1">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="AQ20" s="1">
-        <v>13</v>
+        <v>99</v>
       </c>
       <c r="AR20" s="1">
-        <v>13</v>
+        <v>99</v>
       </c>
       <c r="AS20" s="1">
-        <v>13</v>
+        <v>99</v>
       </c>
       <c r="AT20" s="1">
-        <v>13</v>
+        <v>99</v>
       </c>
       <c r="AU20" s="1">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="AV20" s="1">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="AW20" s="1">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="AX20" s="1">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="AY20" s="1">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="AZ20" s="1">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="BA20" s="1">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="BB20" s="1">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="BC20" s="1">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="BD20" s="1">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="BE20" s="1">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="BF20" s="1">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="BG20" s="1">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="BH20" s="1">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="BI20" s="1">
         <v>99</v>
@@ -6540,39 +6526,39 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="A1:CV20">
-    <cfRule type="cellIs" dxfId="13" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="1" operator="equal">
+      <formula>8</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="2" operator="equal">
+      <formula>7</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="3" operator="equal">
+      <formula>6</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="6" operator="equal">
       <formula>23</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="8" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="9" operator="between">
+    <cfRule type="cellIs" dxfId="8" priority="9" operator="between">
       <formula>14</formula>
       <formula>22</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="10" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="11" operator="equal">
       <formula>99</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="14" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="15" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="16" operator="equal">
       <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="3" operator="equal">
-      <formula>6</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
-      <formula>7</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
-      <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:CV20">
